--- a/performance_sheet.xlsx
+++ b/performance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joachimbreitenstein/Documents/GitHub/Bachelor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC5F11F6-92B0-0940-99B5-4A99AB060657}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0734BD-770A-F54C-B3DF-A68B103F9D3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{1AEF9558-C0A4-034C-88A6-FFB67E784498}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">Ragweed </t>
   </si>
@@ -70,6 +70,63 @@
   </si>
   <si>
     <t>0.46787961110139215</t>
+  </si>
+  <si>
+    <t>9-mere</t>
+  </si>
+  <si>
+    <t>pep-kernal</t>
+  </si>
+  <si>
+    <t>bets vs. Best</t>
+  </si>
+  <si>
+    <t>Bets matching cores</t>
+  </si>
+  <si>
+    <t>0.35845469702195815</t>
+  </si>
+  <si>
+    <t>0.43444579139909006</t>
+  </si>
+  <si>
+    <t>0.1547652384631091</t>
+  </si>
+  <si>
+    <t>0.4017591487944434</t>
+  </si>
+  <si>
+    <t>0.4316842239682599</t>
+  </si>
+  <si>
+    <t>0.3726212558574413</t>
+  </si>
+  <si>
+    <t>0.4697257440142052</t>
+  </si>
+  <si>
+    <t>0.4188699017093505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random forest </t>
+  </si>
+  <si>
+    <t>naive sim. * (100-delta(Rank))</t>
+  </si>
+  <si>
+    <t>Combined rank</t>
+  </si>
+  <si>
+    <t>0.3605044961137628</t>
+  </si>
+  <si>
+    <t>0.07408227033451405</t>
+  </si>
+  <si>
+    <t>0.3768946842308303</t>
+  </si>
+  <si>
+    <t>0.1017992135212817</t>
   </si>
 </sst>
 </file>
@@ -438,16 +495,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D216E228-ACAC-994E-A852-1752FB60290A}">
-  <dimension ref="B5:D8"/>
+  <dimension ref="B5:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -485,13 +543,84 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
